--- a/file_system_example/output.xlsx
+++ b/file_system_example/output.xlsx
@@ -14,18 +14,858 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>D:\Develop\4Test\json\test1.json</t>
-  </si>
-  <si>
-    <t>D:\Develop\4Test\json\test2.json</t>
-  </si>
-  <si>
-    <t>D:\Develop\4Test\json\test3.json</t>
-  </si>
-  <si>
-    <t>D:\Develop\4Test\json\test4.json</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\000_ONPU_19APR_17_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\001_ONPU_19APR_30_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\002_ONPU_19APR_31_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\003_ONPU_19APR_38_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\004_ONPU_19APR_46_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\005_ONPU_19APR_47_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\006_ONPU_19APR_48_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\007_ONPU_19APR_49_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\008_ONPU_19APR_50_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\009_ONPU_19APR_51_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\010_ONPU_19APR_54_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\011_ONPU_11DEC_03_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\012_ONPU_11DEC_09_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\013_ONPU_11DEC_10_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\014_ONPU_11DEC_11_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\015_ONPU_11DEC_23_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\016_ONPU_11DEC_27_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\017_ONPU_11DEC_29_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\018_ONPU_11DEC_31_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\019_ONPU_11DEC_32_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\020_ONPU_11DEC_33_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\021_ONPU_11DEC_40_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\022_ONPU_11DEC_42_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\023_ONPU_11DEC_44_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\024_ONPU_11DEC_48_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\025_ONPU_11DEC_50_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\026_ONPU_11DEC_55_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\027_ONPU_12DEC_56_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\028_ONPU_12DEC_59_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\029_ONPU_12DEC_61_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\030_ONPU_12DEC_65_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\031_ONPU_12DEC_67_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\032_ONPU_12DEC_68_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\033_ONPU_12DEC_80_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\035_ONPU_12DEC_86_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\036_ONPU_12DEC_98_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\037_ONPU_12DEC_104_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\038_ONPU_12DEC_111_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\039_ONPU_12DEC_115_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\040_ONPU_12DEC_123_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\041_ONPU_18DEC_133_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\042_ONPU_18DEC_135_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\043_ONPU_18DEC_136_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\044_ONPU_18DEC_138_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\045_ONPU_18DEC_142_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\046_ONPU_18DEC_144_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\047_ONPU_18DEC_146_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\048_ONPU_18DEC_147_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\049_ONPU_18DEC_148_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\050_ONPU_18DEC_156_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\051_ONPU_18DEC_158_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\052_ONPU_18DEC_161_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\053_ONPU_18DEC_167_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\054_ONPU_18DEC_168_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\055_ONPU_18DEC_169_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\056_ONPU_18DEC_172_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\057_ONPU_18DEC_173_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\058_ONPU_18DEC_174_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\059_ONPU_18DEC_176_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\060_ONPU_18DEC_178_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\061_ONPU_18DEC_179_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\062_ONPU_18DEC_185_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\063_ONPU_18DEC_186_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\064_ONPU_18DEC_188_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\065_ONPU_18DEC_189_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\066_ONPU_18DEC_190_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\067_ONPU_18DEC_191_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\068_ONPU_18DEC_192_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\069_ONPU_18DEC_193_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\070_ONPU_18DEC_199_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\071_ONPU_18DEC_200_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\072_ONPU_18DEC_1_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\073_ONPU_18DEC_2_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\074_ONPU_18DEC_6_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\075_ONPU_18DEC_7_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\076_ONPU_18DEC_10_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\077_ONPU_18DEC_11_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\078_ONPU_18DEC_17_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\079_ONPU_18DEC_18_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\080_ONPU_18DEC_20_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\081_ONPU_18DEC_21_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\082_ONPU_18DEC_22_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\083_ONPU_21DEC_23_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\084_ONPU_21DEC_28_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\085_ONPU_21DEC_30_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\086_ONPU_21DEC_33_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\087_ONPU_21DEC_34_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\088_ONPU_21DEC_35_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\089_ONPU_21DEC_36_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\090_ONPU_21DEC_37_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\091_ONPU_21DEC_44_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\092_ONPU_21DEC_45_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\093_ONPU_21DEC_46_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\094_ONPU_21DEC_47_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\095_ONPU_21DEC_48_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\096_ONPU_21DEC_55_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\097_ONPU_21DEC_56_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\098_ONPU_21DEC_57_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\099_ONPU_21DEC_58_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\100_ONPU_21DEC_61_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\101_ONPU_21DEC_66_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\102_ONPU_21DEC_67_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\103_ONPU_21DEC_69_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\104_ONPU_21DEC_75_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\105_ONPU_27MART_03_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\106_ONPU_27MART_06_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\107_ONPU_27MART_08_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\108_ONPU_27MART_12_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\109_ONPU_27MART_17_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\110_ONPU_27MART_18_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\111_ONPU_27MART_19_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\112_ONPU_27MART_20_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\113_ONPU_27MART_21_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\114_ONPU_27MART_22_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\115_ONPU_27MART_23_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\116_ONPU_27MART_24_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\117_ONPU_27MART_25_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\118_ONPU_27MART_26_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\119_ONPU_27MART_27_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\120_ONPU_27MART_28_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\121_ONPU_27MART_29_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\122_ONPU_27MART_30_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\123_ONPU_27MART_31_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\124_ONPU_27MART_32_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\125_ONPU_27MART_34_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\126_ONPU_27MART_35_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\127_ONPU_27MART_38_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\128_ONPU_27MART_39_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\129_ONPU_27MART_40_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\130_ONPU_27MART_41_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\131_ONPU_27MART_42_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\132_ONPU_27MART_43_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\133_ONPU_27MART_44_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\134_ONPU_27MART_45_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\135_ONPU_27MART_46_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\136_ONPU_27MART_48_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\137_ONPU_27MART_49_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\138_ONPU_27MART_50_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\139_ONPU_27MART_54_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\140_ONPU_27MART_56_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\141_ONPU_27MART_57_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\142_ONPU_27MART_58_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\143_ONPU_27MART_59_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\144_ONPU_27MART_60_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\145_ONPU_27MART_61_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\146_ONPU_27MART_62_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\147_ONPU_27MART_63_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\148_ONPU_27MART_64_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\149_ONPU_27MART_65_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\150_ONPU_27MART_66_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\151_ONPU_27MART_67_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\152_ONPU_27MART_68_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\153_ONPU_27MART_69_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\154_ONPU_27MART_70_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\155_ONPU_27MART_71_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\156_ONPU_27MART_72_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\157_ONPU_27MART_73_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\158_ONPU_27MART_74_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\159_ONPU_27MART_76_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\160_ONPU_27MART_77_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\161_ONPU_27MART_78_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\162_ONPU_27MART_79_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\163_ONPU_27MART_80_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\164_ONPU_27MART_81_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\165_ONPU_27MART_82_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\166_ONPU_27MART_84_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\167_ONPU_27MART_85_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\168_ONPU_27MART_87_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\169_ONPU_27MART_89_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\170_ONPU_27MART_91_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\171_ONPU_27MART_92_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\172_ONPU_27MART_93_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\173_ONPU_27MART_94_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\174_ONPU_27MART_95_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\175_ONPU_27MART_96_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\176_ONPU_27MART_97_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\177_ONPU_27MART_98_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\178_ONPU_27MART_99_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\179_ONPU_27MART_100_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\180_ONPU_27MART_101_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\181_ONPU_27MART_103_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\182_ONPU_27MART_104_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\183_ONPU_27MART_105_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\184_ONPU_27MART_107_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\185_ONPU_27MART_108_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\186_ONPU_27MART_109_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\187_ONPU_27MART_110_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\188_ONPU_27MART_111_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\189_ONPU_27MART_112_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\190_ONPU_27MART_113_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\191_ONPU_27MART_114_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\192_ONPU_27MART_115_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\193_ONPU_27MART_116_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\194_ONPU_27MART_117_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\195_ONPU_27MART_120_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\196_ONPU_27MART_121_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\197_ONPU_27MART_122_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\198_ONPU_27MART_123_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\199_ONPU_27MART_124_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\200_ONPU_28MART_125_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\201_ONPU_28MART_126_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\202_ONPU_28MART_127_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\203_ONPU_28MART_130_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\204_ONPU_28MART_131_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\205_ONPU_28MART_132_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\206_ONPU_28MART_133_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\207_ONPU_28MART_134_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\208_ONPU_28MART_135_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\210_ONPU_28MART_137_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\211_ONPU_28MART_139_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\212_ONPU_28MART_140_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\213_ONPU_28MART_141_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\214_ONPU_28MART_142_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\215_ONPU_28MART_143_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\216_ONPU_28MART_144_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\217_ONPU_28MART_150_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\218_ONPU_28MART_153_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\219_ONPU_28MART_154_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\220_ONPU_28MART_155_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\221_ONPU_28MART_156_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\222_ONPU_28MART_157_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\223_ONPU_28MART_159_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\224_ONPU_28MART_160_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\225_ONPU_28MART_161_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\226_ONPU_28MART_162_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\227_ONPU_28MART_163_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\228_ONPU_28MART_164_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\229_ONPU_28MART_166_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\230_ONPU_28MART_168_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\231_ONPU_28MART_169_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\232_ONPU_28MART_170_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\233_ONPU_28MART_171_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\234_ONPU_28MART_172_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\235_ONPU_28MART_173_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\236_ONPU_28MART_174_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\237_ONPU_28MART_175_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\238_ONPU_28MART_176_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\239_ONPU_28MART_177_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\240_ONPU_28MART_178_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\241_ONPU_28MART_179_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\242_ONPU_28MART_180_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\243_ONPU_28MART_181_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\244_ONPU_28MART_182_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\245_ONPU_28MART_183_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\246_ONPU_28MART_184_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\247_ONPU_28MART_186_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\248_ONPU_28MART_187_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\249_ONPU_MART_189_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\250_ONPU_MART_190_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\251_ONPU_MART_191_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\252_ONPU_MART_193_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\253_ONPU_MART_196_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\254_ONPU_MART_197_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\255_ONPU_MART_199_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\256_ONPU_MART_200_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\257_ONPU_MART_201_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\258_ONPU_MART_202_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\259_ONPU_MART_203_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\260_ONPU_MART_204_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\262_ONPU_MART_206_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\263_ONPU_MART_207_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\264_ONPU_MART_208_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\266_ONPU_MART_210_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\267_ONPU_MART_211_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\268_ONPU_MART_212_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\271_ONPU_MART_215_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\272_ONPU_MART_216_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\273_ONPU_MART_217_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\274_ONPU_MART_218_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\275_ONPU_MART_219_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\276_ONPU_MART_220_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\277_ONPU_MART_221_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\278_ONPU_MART_222_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\279_ONPU_MART_223_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\280_ONPU_MART_224_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\281_ONPU_MART_225_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\282_ONPU_MART_226_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\283_ONPU_MART_227_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\284_ONPU_MART_228_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\285_ONPU_MART_229_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\287_ONPU_27MART_05_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\288_ONPU_27MART_09_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\289_ONPU_27MART_13_complete.json</t>
+  </si>
+  <si>
+    <t>C:\WORK\TEST_DATA\Data_SET\DATA_FOR_STAT\clear_json\290_ONPU_27MART_14_complete.json</t>
   </si>
 </sst>
 </file>
@@ -357,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,13 +1208,13 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>100.716</v>
+        <v>102.004</v>
       </c>
       <c r="C1">
-        <v>89.515</v>
+        <v>91.2341</v>
       </c>
       <c r="D1">
-        <v>99.182</v>
+        <v>98.0775</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -382,13 +1222,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2222</v>
+        <v>91.4027</v>
       </c>
       <c r="C2">
-        <v>2222</v>
+        <v>77.5428</v>
       </c>
       <c r="D2">
-        <v>22222</v>
+        <v>92.5676</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -396,13 +1236,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3333</v>
+        <v>91.4301</v>
       </c>
       <c r="C3">
-        <v>3333</v>
+        <v>78.12690000000001</v>
       </c>
       <c r="D3">
-        <v>3333</v>
+        <v>90.54219999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -410,13 +1250,3933 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4444</v>
+        <v>87.473</v>
       </c>
       <c r="C4">
-        <v>444</v>
+        <v>74.82680000000001</v>
       </c>
       <c r="D4">
-        <v>4444</v>
+        <v>94.9098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>87.0599</v>
+      </c>
+      <c r="C5">
+        <v>73.47</v>
+      </c>
+      <c r="D5">
+        <v>87.1371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>88.01900000000001</v>
+      </c>
+      <c r="C6">
+        <v>75.6768</v>
+      </c>
+      <c r="D6">
+        <v>86.8625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>92.5299</v>
+      </c>
+      <c r="C7">
+        <v>78.38120000000001</v>
+      </c>
+      <c r="D7">
+        <v>92.3497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>91.8283</v>
+      </c>
+      <c r="C8">
+        <v>78.3997</v>
+      </c>
+      <c r="D8">
+        <v>92.8242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>94.40170000000001</v>
+      </c>
+      <c r="C9">
+        <v>86.3746</v>
+      </c>
+      <c r="D9">
+        <v>91.336</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>102.984</v>
+      </c>
+      <c r="C10">
+        <v>97.1874</v>
+      </c>
+      <c r="D10">
+        <v>109.184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>89.8364</v>
+      </c>
+      <c r="C11">
+        <v>78.4028</v>
+      </c>
+      <c r="D11">
+        <v>105.916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>95.2076</v>
+      </c>
+      <c r="C12">
+        <v>88.0761</v>
+      </c>
+      <c r="D12">
+        <v>95.5594</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>100.538</v>
+      </c>
+      <c r="C13">
+        <v>94.66679999999999</v>
+      </c>
+      <c r="D13">
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>101.547</v>
+      </c>
+      <c r="C14">
+        <v>95.4903</v>
+      </c>
+      <c r="D14">
+        <v>104.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>91.7223</v>
+      </c>
+      <c r="C15">
+        <v>76.8621</v>
+      </c>
+      <c r="D15">
+        <v>92.7092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>91.2949</v>
+      </c>
+      <c r="C16">
+        <v>76.7193</v>
+      </c>
+      <c r="D16">
+        <v>92.4091</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>96.0523</v>
+      </c>
+      <c r="C17">
+        <v>87.655</v>
+      </c>
+      <c r="D17">
+        <v>96.2431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>85.626</v>
+      </c>
+      <c r="C18">
+        <v>71.1725</v>
+      </c>
+      <c r="D18">
+        <v>86.0856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>90.0942</v>
+      </c>
+      <c r="C19">
+        <v>75.2974</v>
+      </c>
+      <c r="D19">
+        <v>91.6735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>87.1703</v>
+      </c>
+      <c r="C20">
+        <v>73.0741</v>
+      </c>
+      <c r="D20">
+        <v>87.7197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>89.3567</v>
+      </c>
+      <c r="C21">
+        <v>75.08710000000001</v>
+      </c>
+      <c r="D21">
+        <v>89.29179999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>96.79600000000001</v>
+      </c>
+      <c r="C22">
+        <v>88.3385</v>
+      </c>
+      <c r="D22">
+        <v>96.37909999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>96.5227</v>
+      </c>
+      <c r="C23">
+        <v>90.0278</v>
+      </c>
+      <c r="D23">
+        <v>99.3656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>93.62139999999999</v>
+      </c>
+      <c r="C24">
+        <v>85.5202</v>
+      </c>
+      <c r="D24">
+        <v>93.3141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>97.47539999999999</v>
+      </c>
+      <c r="C25">
+        <v>91.0968</v>
+      </c>
+      <c r="D25">
+        <v>101.455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>98.5809</v>
+      </c>
+      <c r="C26">
+        <v>90.36539999999999</v>
+      </c>
+      <c r="D26">
+        <v>99.495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>96.94970000000001</v>
+      </c>
+      <c r="C27">
+        <v>89.28</v>
+      </c>
+      <c r="D27">
+        <v>98.767</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>95.8759</v>
+      </c>
+      <c r="C28">
+        <v>87.5723</v>
+      </c>
+      <c r="D28">
+        <v>97.8386</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>96.2833</v>
+      </c>
+      <c r="C29">
+        <v>87.23269999999999</v>
+      </c>
+      <c r="D29">
+        <v>94.41849999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>102.721</v>
+      </c>
+      <c r="C30">
+        <v>94.70229999999999</v>
+      </c>
+      <c r="D30">
+        <v>102.085</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>96.84010000000001</v>
+      </c>
+      <c r="C31">
+        <v>90.3265</v>
+      </c>
+      <c r="D31">
+        <v>99.5697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>89.1758</v>
+      </c>
+      <c r="C32">
+        <v>75.7766</v>
+      </c>
+      <c r="D32">
+        <v>89.65779999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>94.69119999999999</v>
+      </c>
+      <c r="C33">
+        <v>86.57980000000001</v>
+      </c>
+      <c r="D33">
+        <v>94.4263</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>97.8146</v>
+      </c>
+      <c r="C34">
+        <v>89.04179999999999</v>
+      </c>
+      <c r="D34">
+        <v>96.33110000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>101.938</v>
+      </c>
+      <c r="C35">
+        <v>91.913</v>
+      </c>
+      <c r="D35">
+        <v>100.802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>127.234</v>
+      </c>
+      <c r="C36">
+        <v>117.797</v>
+      </c>
+      <c r="D36">
+        <v>123.081</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>96.3165</v>
+      </c>
+      <c r="C37">
+        <v>90.51519999999999</v>
+      </c>
+      <c r="D37">
+        <v>101.214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>92.9823</v>
+      </c>
+      <c r="C38">
+        <v>84.5538</v>
+      </c>
+      <c r="D38">
+        <v>93.712</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>96.53189999999999</v>
+      </c>
+      <c r="C39">
+        <v>90.3235</v>
+      </c>
+      <c r="D39">
+        <v>100.733</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>98.1596</v>
+      </c>
+      <c r="C40">
+        <v>92.0988</v>
+      </c>
+      <c r="D40">
+        <v>102.321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>98.57899999999999</v>
+      </c>
+      <c r="C41">
+        <v>90.0044</v>
+      </c>
+      <c r="D41">
+        <v>97.4162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>99.80240000000001</v>
+      </c>
+      <c r="C42">
+        <v>90.1147</v>
+      </c>
+      <c r="D42">
+        <v>93.85299999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>90.9953</v>
+      </c>
+      <c r="C43">
+        <v>85.19710000000001</v>
+      </c>
+      <c r="D43">
+        <v>94.75369999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>91.2439</v>
+      </c>
+      <c r="C44">
+        <v>77.4358</v>
+      </c>
+      <c r="D44">
+        <v>92.75620000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>91.721</v>
+      </c>
+      <c r="C45">
+        <v>76.81480000000001</v>
+      </c>
+      <c r="D45">
+        <v>90.2855</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>94.81959999999999</v>
+      </c>
+      <c r="C46">
+        <v>86.3385</v>
+      </c>
+      <c r="D46">
+        <v>93.1296</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>88.7349</v>
+      </c>
+      <c r="C47">
+        <v>77.41800000000001</v>
+      </c>
+      <c r="D47">
+        <v>93.1516</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>88.9581</v>
+      </c>
+      <c r="C48">
+        <v>75.5406</v>
+      </c>
+      <c r="D48">
+        <v>90.88679999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>89.67230000000001</v>
+      </c>
+      <c r="C49">
+        <v>74.7056</v>
+      </c>
+      <c r="D49">
+        <v>89.5425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>98.4776</v>
+      </c>
+      <c r="C50">
+        <v>90.1632</v>
+      </c>
+      <c r="D50">
+        <v>99.7872</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>93.8357</v>
+      </c>
+      <c r="C51">
+        <v>89.5407</v>
+      </c>
+      <c r="D51">
+        <v>98.7984</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>95.70489999999999</v>
+      </c>
+      <c r="C52">
+        <v>86.2238</v>
+      </c>
+      <c r="D52">
+        <v>94.447</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>88.17529999999999</v>
+      </c>
+      <c r="C53">
+        <v>73.3456</v>
+      </c>
+      <c r="D53">
+        <v>87.8984</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>91.61839999999999</v>
+      </c>
+      <c r="C54">
+        <v>77.4845</v>
+      </c>
+      <c r="D54">
+        <v>94.8661</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>91.55500000000001</v>
+      </c>
+      <c r="C55">
+        <v>85.6688</v>
+      </c>
+      <c r="D55">
+        <v>94.88420000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>93.2555</v>
+      </c>
+      <c r="C56">
+        <v>76.6942</v>
+      </c>
+      <c r="D56">
+        <v>92.1246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>95.224</v>
+      </c>
+      <c r="C57">
+        <v>86.54600000000001</v>
+      </c>
+      <c r="D57">
+        <v>95.6712</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>97.7822</v>
+      </c>
+      <c r="C58">
+        <v>89.37179999999999</v>
+      </c>
+      <c r="D58">
+        <v>96.72190000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>89.5594</v>
+      </c>
+      <c r="C59">
+        <v>76.5235</v>
+      </c>
+      <c r="D59">
+        <v>89.7244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>95.2474</v>
+      </c>
+      <c r="C60">
+        <v>87.0227</v>
+      </c>
+      <c r="D60">
+        <v>97.471</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>101.268</v>
+      </c>
+      <c r="C61">
+        <v>91.35250000000001</v>
+      </c>
+      <c r="D61">
+        <v>100.306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>89.8809</v>
+      </c>
+      <c r="C62">
+        <v>75.70650000000001</v>
+      </c>
+      <c r="D62">
+        <v>91.57259999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>100.896</v>
+      </c>
+      <c r="C63">
+        <v>93.81059999999999</v>
+      </c>
+      <c r="D63">
+        <v>104.314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>91.74550000000001</v>
+      </c>
+      <c r="C64">
+        <v>77.7205</v>
+      </c>
+      <c r="D64">
+        <v>93.1966</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>87.3592</v>
+      </c>
+      <c r="C65">
+        <v>74.4619</v>
+      </c>
+      <c r="D65">
+        <v>89.05459999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>90.3425</v>
+      </c>
+      <c r="C66">
+        <v>76.9055</v>
+      </c>
+      <c r="D66">
+        <v>91.5427</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>88.9967</v>
+      </c>
+      <c r="C67">
+        <v>77.124</v>
+      </c>
+      <c r="D67">
+        <v>92.6413</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>96.43559999999999</v>
+      </c>
+      <c r="C68">
+        <v>86.20780000000001</v>
+      </c>
+      <c r="D68">
+        <v>95.4999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>93.1964</v>
+      </c>
+      <c r="C69">
+        <v>83.5129</v>
+      </c>
+      <c r="D69">
+        <v>95.334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>90.51260000000001</v>
+      </c>
+      <c r="C70">
+        <v>75.0639</v>
+      </c>
+      <c r="D70">
+        <v>88.36660000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>93.37130000000001</v>
+      </c>
+      <c r="C71">
+        <v>84.34220000000001</v>
+      </c>
+      <c r="D71">
+        <v>93.35169999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>89.0055</v>
+      </c>
+      <c r="C72">
+        <v>74.77719999999999</v>
+      </c>
+      <c r="D72">
+        <v>92.57729999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>89.5879</v>
+      </c>
+      <c r="C73">
+        <v>75.84780000000001</v>
+      </c>
+      <c r="D73">
+        <v>89.2274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>91.7123</v>
+      </c>
+      <c r="C74">
+        <v>77.2744</v>
+      </c>
+      <c r="D74">
+        <v>93.5402</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>98.40900000000001</v>
+      </c>
+      <c r="C75">
+        <v>88.5072</v>
+      </c>
+      <c r="D75">
+        <v>96.0317</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>90.5735</v>
+      </c>
+      <c r="C76">
+        <v>76.345</v>
+      </c>
+      <c r="D76">
+        <v>91.18470000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>97.1812</v>
+      </c>
+      <c r="C77">
+        <v>88.0278</v>
+      </c>
+      <c r="D77">
+        <v>95.94289999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>99.6897</v>
+      </c>
+      <c r="C78">
+        <v>89.577</v>
+      </c>
+      <c r="D78">
+        <v>99.6283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>95.2808</v>
+      </c>
+      <c r="C79">
+        <v>87.458</v>
+      </c>
+      <c r="D79">
+        <v>96.8656</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>103.916</v>
+      </c>
+      <c r="C80">
+        <v>94.91589999999999</v>
+      </c>
+      <c r="D80">
+        <v>101.249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>95.0658</v>
+      </c>
+      <c r="C81">
+        <v>87.44119999999999</v>
+      </c>
+      <c r="D81">
+        <v>96.4712</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>87.37</v>
+      </c>
+      <c r="C82">
+        <v>74.9606</v>
+      </c>
+      <c r="D82">
+        <v>91.1614</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>91.8283</v>
+      </c>
+      <c r="C83">
+        <v>84.85890000000001</v>
+      </c>
+      <c r="D83">
+        <v>94.2312</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>91.39660000000001</v>
+      </c>
+      <c r="C84">
+        <v>77.0502</v>
+      </c>
+      <c r="D84">
+        <v>94.316</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>85.54900000000001</v>
+      </c>
+      <c r="C85">
+        <v>73.8518</v>
+      </c>
+      <c r="D85">
+        <v>88.8789</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>95.1293</v>
+      </c>
+      <c r="C86">
+        <v>87.4226</v>
+      </c>
+      <c r="D86">
+        <v>93.4418</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>89.01479999999999</v>
+      </c>
+      <c r="C87">
+        <v>74.5355</v>
+      </c>
+      <c r="D87">
+        <v>89.6036</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>93.0367</v>
+      </c>
+      <c r="C88">
+        <v>77.941</v>
+      </c>
+      <c r="D88">
+        <v>92.3078</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>88.0202</v>
+      </c>
+      <c r="C89">
+        <v>74.4769</v>
+      </c>
+      <c r="D89">
+        <v>87.93129999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>101.51</v>
+      </c>
+      <c r="C90">
+        <v>93.2688</v>
+      </c>
+      <c r="D90">
+        <v>102.031</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>92.9825</v>
+      </c>
+      <c r="C91">
+        <v>85.8212</v>
+      </c>
+      <c r="D91">
+        <v>94.90779999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>98.97969999999999</v>
+      </c>
+      <c r="C92">
+        <v>93.39019999999999</v>
+      </c>
+      <c r="D92">
+        <v>103.334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>97.5681</v>
+      </c>
+      <c r="C93">
+        <v>86.4174</v>
+      </c>
+      <c r="D93">
+        <v>94.03700000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>97.04940000000001</v>
+      </c>
+      <c r="C94">
+        <v>89.6131</v>
+      </c>
+      <c r="D94">
+        <v>97.16630000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>93.6652</v>
+      </c>
+      <c r="C95">
+        <v>86.5951</v>
+      </c>
+      <c r="D95">
+        <v>97.447</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>90.1024</v>
+      </c>
+      <c r="C96">
+        <v>75.6219</v>
+      </c>
+      <c r="D96">
+        <v>90.3648</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>83.4678</v>
+      </c>
+      <c r="C97">
+        <v>71.2347</v>
+      </c>
+      <c r="D97">
+        <v>87.03579999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>102.291</v>
+      </c>
+      <c r="C98">
+        <v>98.10890000000001</v>
+      </c>
+      <c r="D98">
+        <v>109.147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>97.76990000000001</v>
+      </c>
+      <c r="C99">
+        <v>88.9328</v>
+      </c>
+      <c r="D99">
+        <v>96.23609999999999</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>97.65819999999999</v>
+      </c>
+      <c r="C100">
+        <v>90.73869999999999</v>
+      </c>
+      <c r="D100">
+        <v>101.828</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>92.0664</v>
+      </c>
+      <c r="C101">
+        <v>76.40519999999999</v>
+      </c>
+      <c r="D101">
+        <v>91.7988</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>96.09439999999999</v>
+      </c>
+      <c r="C102">
+        <v>86.7881</v>
+      </c>
+      <c r="D102">
+        <v>95.37820000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>99.833</v>
+      </c>
+      <c r="C103">
+        <v>91.07040000000001</v>
+      </c>
+      <c r="D103">
+        <v>99.1709</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>101.311</v>
+      </c>
+      <c r="C104">
+        <v>92.40860000000001</v>
+      </c>
+      <c r="D104">
+        <v>102.654</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>94.68210000000001</v>
+      </c>
+      <c r="C105">
+        <v>88.9109</v>
+      </c>
+      <c r="D105">
+        <v>100.69</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>93.48869999999999</v>
+      </c>
+      <c r="C106">
+        <v>86.3262</v>
+      </c>
+      <c r="D106">
+        <v>101.121</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>90.1028</v>
+      </c>
+      <c r="C107">
+        <v>78.592</v>
+      </c>
+      <c r="D107">
+        <v>95.7025</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>102.054</v>
+      </c>
+      <c r="C108">
+        <v>94.59780000000001</v>
+      </c>
+      <c r="D108">
+        <v>103.745</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>91.9195</v>
+      </c>
+      <c r="C109">
+        <v>78.6343</v>
+      </c>
+      <c r="D109">
+        <v>94.45050000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>93.2411</v>
+      </c>
+      <c r="C110">
+        <v>84.6216</v>
+      </c>
+      <c r="D110">
+        <v>94.1223</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>96.6687</v>
+      </c>
+      <c r="C111">
+        <v>90.8686</v>
+      </c>
+      <c r="D111">
+        <v>101.865</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>87.248</v>
+      </c>
+      <c r="C112">
+        <v>73.2025</v>
+      </c>
+      <c r="D112">
+        <v>85.8627</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>88.571</v>
+      </c>
+      <c r="C113">
+        <v>75.72150000000001</v>
+      </c>
+      <c r="D113">
+        <v>91.74809999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>89.54300000000001</v>
+      </c>
+      <c r="C114">
+        <v>76.2833</v>
+      </c>
+      <c r="D114">
+        <v>93.92189999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>88.41840000000001</v>
+      </c>
+      <c r="C115">
+        <v>75.9186</v>
+      </c>
+      <c r="D115">
+        <v>92.23180000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>87.2856</v>
+      </c>
+      <c r="C116">
+        <v>74.34690000000001</v>
+      </c>
+      <c r="D116">
+        <v>84.8539</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>89.929</v>
+      </c>
+      <c r="C117">
+        <v>76.0829</v>
+      </c>
+      <c r="D117">
+        <v>91.381</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>100.632</v>
+      </c>
+      <c r="C118">
+        <v>92.864</v>
+      </c>
+      <c r="D118">
+        <v>100.883</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>90.3347</v>
+      </c>
+      <c r="C119">
+        <v>77.8822</v>
+      </c>
+      <c r="D119">
+        <v>92.557</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>92.44</v>
+      </c>
+      <c r="C120">
+        <v>78.8866</v>
+      </c>
+      <c r="D120">
+        <v>95.0222</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>91.65819999999999</v>
+      </c>
+      <c r="C121">
+        <v>78.0296</v>
+      </c>
+      <c r="D121">
+        <v>91.79430000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>93.9051</v>
+      </c>
+      <c r="C122">
+        <v>88.0479</v>
+      </c>
+      <c r="D122">
+        <v>95.48739999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>86.7784</v>
+      </c>
+      <c r="C123">
+        <v>72.4194</v>
+      </c>
+      <c r="D123">
+        <v>85.8557</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>88.7163</v>
+      </c>
+      <c r="C124">
+        <v>74.4271</v>
+      </c>
+      <c r="D124">
+        <v>90.8236</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>94.25749999999999</v>
+      </c>
+      <c r="C125">
+        <v>87.3784</v>
+      </c>
+      <c r="D125">
+        <v>93.93600000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>94.4898</v>
+      </c>
+      <c r="C126">
+        <v>87.59350000000001</v>
+      </c>
+      <c r="D126">
+        <v>93.0941</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>97.6151</v>
+      </c>
+      <c r="C127">
+        <v>93.2072</v>
+      </c>
+      <c r="D127">
+        <v>107.438</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>89.88209999999999</v>
+      </c>
+      <c r="C128">
+        <v>77.50149999999999</v>
+      </c>
+      <c r="D128">
+        <v>97.0607</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>96.5076</v>
+      </c>
+      <c r="C129">
+        <v>89.89190000000001</v>
+      </c>
+      <c r="D129">
+        <v>97.8361</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>96.1926</v>
+      </c>
+      <c r="C130">
+        <v>90.4979</v>
+      </c>
+      <c r="D130">
+        <v>96.61199999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>86.7229</v>
+      </c>
+      <c r="C131">
+        <v>74.9877</v>
+      </c>
+      <c r="D131">
+        <v>87.5963</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>92.964</v>
+      </c>
+      <c r="C132">
+        <v>78.08880000000001</v>
+      </c>
+      <c r="D132">
+        <v>92.4358</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>94.3441</v>
+      </c>
+      <c r="C133">
+        <v>90.6404</v>
+      </c>
+      <c r="D133">
+        <v>97.4661</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>93.035</v>
+      </c>
+      <c r="C134">
+        <v>85.7861</v>
+      </c>
+      <c r="D134">
+        <v>93.94459999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>88.2848</v>
+      </c>
+      <c r="C135">
+        <v>74.87869999999999</v>
+      </c>
+      <c r="D135">
+        <v>89.1221</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>90.5068</v>
+      </c>
+      <c r="C136">
+        <v>77.2316</v>
+      </c>
+      <c r="D136">
+        <v>92.82859999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>88.9961</v>
+      </c>
+      <c r="C137">
+        <v>78.9589</v>
+      </c>
+      <c r="D137">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>85.3151</v>
+      </c>
+      <c r="C138">
+        <v>74.5064</v>
+      </c>
+      <c r="D138">
+        <v>89.10550000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>96.0125</v>
+      </c>
+      <c r="C139">
+        <v>87.1854</v>
+      </c>
+      <c r="D139">
+        <v>93.5958</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>89.5287</v>
+      </c>
+      <c r="C140">
+        <v>74.6292</v>
+      </c>
+      <c r="D140">
+        <v>87.77849999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>95.9931</v>
+      </c>
+      <c r="C141">
+        <v>88.095</v>
+      </c>
+      <c r="D141">
+        <v>98.1023</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>88.6951</v>
+      </c>
+      <c r="C142">
+        <v>75.51819999999999</v>
+      </c>
+      <c r="D142">
+        <v>89.2959</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>83.0765</v>
+      </c>
+      <c r="C143">
+        <v>71.3198</v>
+      </c>
+      <c r="D143">
+        <v>93.7405</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>87.15949999999999</v>
+      </c>
+      <c r="C144">
+        <v>75.486</v>
+      </c>
+      <c r="D144">
+        <v>88.2514</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>85.9837</v>
+      </c>
+      <c r="C145">
+        <v>72.3489</v>
+      </c>
+      <c r="D145">
+        <v>85.0107</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>90.9562</v>
+      </c>
+      <c r="C146">
+        <v>76.8972</v>
+      </c>
+      <c r="D146">
+        <v>89.7555</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>93.7805</v>
+      </c>
+      <c r="C147">
+        <v>88.0801</v>
+      </c>
+      <c r="D147">
+        <v>102.65</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>95.0646</v>
+      </c>
+      <c r="C148">
+        <v>90.2022</v>
+      </c>
+      <c r="D148">
+        <v>98.53449999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>91.5518</v>
+      </c>
+      <c r="C149">
+        <v>86.1819</v>
+      </c>
+      <c r="D149">
+        <v>102.904</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>95.1537</v>
+      </c>
+      <c r="C150">
+        <v>89.9633</v>
+      </c>
+      <c r="D150">
+        <v>106.742</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>91.6665</v>
+      </c>
+      <c r="C151">
+        <v>77.5236</v>
+      </c>
+      <c r="D151">
+        <v>98.0929</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>94.98050000000001</v>
+      </c>
+      <c r="C152">
+        <v>87.1576</v>
+      </c>
+      <c r="D152">
+        <v>97.5408</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>103.886</v>
+      </c>
+      <c r="C153">
+        <v>96.1525</v>
+      </c>
+      <c r="D153">
+        <v>103.961</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>97.1721</v>
+      </c>
+      <c r="C154">
+        <v>90.21810000000001</v>
+      </c>
+      <c r="D154">
+        <v>99.4948</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>90.0729</v>
+      </c>
+      <c r="C155">
+        <v>76.3741</v>
+      </c>
+      <c r="D155">
+        <v>91.7958</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>91.8678</v>
+      </c>
+      <c r="C156">
+        <v>77.2073</v>
+      </c>
+      <c r="D156">
+        <v>93.3079</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>88.2928</v>
+      </c>
+      <c r="C157">
+        <v>77.69750000000001</v>
+      </c>
+      <c r="D157">
+        <v>94.9464</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>99.7403</v>
+      </c>
+      <c r="C158">
+        <v>92.2131</v>
+      </c>
+      <c r="D158">
+        <v>99.26519999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>90.0307</v>
+      </c>
+      <c r="C159">
+        <v>76.5457</v>
+      </c>
+      <c r="D159">
+        <v>92.74469999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>90.46420000000001</v>
+      </c>
+      <c r="C160">
+        <v>75.745</v>
+      </c>
+      <c r="D160">
+        <v>96.9718</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>93.33459999999999</v>
+      </c>
+      <c r="C161">
+        <v>87.9992</v>
+      </c>
+      <c r="D161">
+        <v>101.334</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>89.5829</v>
+      </c>
+      <c r="C162">
+        <v>75.5043</v>
+      </c>
+      <c r="D162">
+        <v>91.17740000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>93.7024</v>
+      </c>
+      <c r="C163">
+        <v>88.3267</v>
+      </c>
+      <c r="D163">
+        <v>94.389</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>92.44629999999999</v>
+      </c>
+      <c r="C164">
+        <v>85.0528</v>
+      </c>
+      <c r="D164">
+        <v>95.55240000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>91.7012</v>
+      </c>
+      <c r="C165">
+        <v>79.8292</v>
+      </c>
+      <c r="D165">
+        <v>94.7364</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>90.2861</v>
+      </c>
+      <c r="C166">
+        <v>76.4837</v>
+      </c>
+      <c r="D166">
+        <v>87.4264</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>84.89319999999999</v>
+      </c>
+      <c r="C167">
+        <v>73.2552</v>
+      </c>
+      <c r="D167">
+        <v>89.6113</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>91.3794</v>
+      </c>
+      <c r="C168">
+        <v>77.73260000000001</v>
+      </c>
+      <c r="D168">
+        <v>88.48609999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>83.2426</v>
+      </c>
+      <c r="C169">
+        <v>71.5558</v>
+      </c>
+      <c r="D169">
+        <v>92.31019999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>91.5647</v>
+      </c>
+      <c r="C170">
+        <v>85.44410000000001</v>
+      </c>
+      <c r="D170">
+        <v>91.45440000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>91.84950000000001</v>
+      </c>
+      <c r="C171">
+        <v>86.1069</v>
+      </c>
+      <c r="D171">
+        <v>97.1253</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>86.9984</v>
+      </c>
+      <c r="C172">
+        <v>73.60809999999999</v>
+      </c>
+      <c r="D172">
+        <v>94.9837</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>92.74299999999999</v>
+      </c>
+      <c r="C173">
+        <v>77.6339</v>
+      </c>
+      <c r="D173">
+        <v>91.6456</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>93.60039999999999</v>
+      </c>
+      <c r="C174">
+        <v>86.2135</v>
+      </c>
+      <c r="D174">
+        <v>92.8053</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>100.712</v>
+      </c>
+      <c r="C175">
+        <v>94.29989999999999</v>
+      </c>
+      <c r="D175">
+        <v>106.143</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>88.5694</v>
+      </c>
+      <c r="C176">
+        <v>77.6433</v>
+      </c>
+      <c r="D176">
+        <v>98.4392</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>95.8836</v>
+      </c>
+      <c r="C177">
+        <v>88.29170000000001</v>
+      </c>
+      <c r="D177">
+        <v>96.6998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>93.9586</v>
+      </c>
+      <c r="C178">
+        <v>85.8768</v>
+      </c>
+      <c r="D178">
+        <v>95.6211</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>91.9686</v>
+      </c>
+      <c r="C179">
+        <v>84.553</v>
+      </c>
+      <c r="D179">
+        <v>93.6352</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>97.8421</v>
+      </c>
+      <c r="C180">
+        <v>89.8038</v>
+      </c>
+      <c r="D180">
+        <v>97.5595</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>91.4675</v>
+      </c>
+      <c r="C181">
+        <v>86.36879999999999</v>
+      </c>
+      <c r="D181">
+        <v>92.52370000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>91.77330000000001</v>
+      </c>
+      <c r="C182">
+        <v>86.2847</v>
+      </c>
+      <c r="D182">
+        <v>92.0604</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>90.8732</v>
+      </c>
+      <c r="C183">
+        <v>77.3278</v>
+      </c>
+      <c r="D183">
+        <v>88.3909</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>97.5168</v>
+      </c>
+      <c r="C184">
+        <v>92.46040000000001</v>
+      </c>
+      <c r="D184">
+        <v>98.1374</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>89.7867</v>
+      </c>
+      <c r="C185">
+        <v>77.3843</v>
+      </c>
+      <c r="D185">
+        <v>90.9032</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>90.28919999999999</v>
+      </c>
+      <c r="C186">
+        <v>76.0373</v>
+      </c>
+      <c r="D186">
+        <v>91.3081</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>97.2045</v>
+      </c>
+      <c r="C187">
+        <v>88.3207</v>
+      </c>
+      <c r="D187">
+        <v>94.6443</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>89.19799999999999</v>
+      </c>
+      <c r="C188">
+        <v>77.4455</v>
+      </c>
+      <c r="D188">
+        <v>89.1841</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>96.1754</v>
+      </c>
+      <c r="C189">
+        <v>88.2689</v>
+      </c>
+      <c r="D189">
+        <v>96.4997</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>97.9346</v>
+      </c>
+      <c r="C190">
+        <v>91.70910000000001</v>
+      </c>
+      <c r="D190">
+        <v>100.114</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>96.4562</v>
+      </c>
+      <c r="C191">
+        <v>89.13290000000001</v>
+      </c>
+      <c r="D191">
+        <v>94.3351</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>88.2711</v>
+      </c>
+      <c r="C192">
+        <v>74.42149999999999</v>
+      </c>
+      <c r="D192">
+        <v>89.3665</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>93.3702</v>
+      </c>
+      <c r="C193">
+        <v>86.8651</v>
+      </c>
+      <c r="D193">
+        <v>98.6712</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>88.1865</v>
+      </c>
+      <c r="C194">
+        <v>74.8935</v>
+      </c>
+      <c r="D194">
+        <v>90.3194</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>88.61239999999999</v>
+      </c>
+      <c r="C195">
+        <v>75.32729999999999</v>
+      </c>
+      <c r="D195">
+        <v>90.0605</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>99.26909999999999</v>
+      </c>
+      <c r="C196">
+        <v>92.8647</v>
+      </c>
+      <c r="D196">
+        <v>101.73</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>100.181</v>
+      </c>
+      <c r="C197">
+        <v>90.6341</v>
+      </c>
+      <c r="D197">
+        <v>94.89879999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>94.33150000000001</v>
+      </c>
+      <c r="C198">
+        <v>85.62350000000001</v>
+      </c>
+      <c r="D198">
+        <v>95.42019999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>86.99850000000001</v>
+      </c>
+      <c r="C199">
+        <v>74.5804</v>
+      </c>
+      <c r="D199">
+        <v>90.7593</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>93.6172</v>
+      </c>
+      <c r="C200">
+        <v>88.5763</v>
+      </c>
+      <c r="D200">
+        <v>98.3165</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>93.1968</v>
+      </c>
+      <c r="C201">
+        <v>86.9335</v>
+      </c>
+      <c r="D201">
+        <v>96.5896</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>96.5376</v>
+      </c>
+      <c r="C202">
+        <v>88.9342</v>
+      </c>
+      <c r="D202">
+        <v>98.8638</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>92.33110000000001</v>
+      </c>
+      <c r="C203">
+        <v>77.32470000000001</v>
+      </c>
+      <c r="D203">
+        <v>90.0414</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>92.6635</v>
+      </c>
+      <c r="C204">
+        <v>78.14709999999999</v>
+      </c>
+      <c r="D204">
+        <v>91.0874</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>85.5462</v>
+      </c>
+      <c r="C205">
+        <v>74.05070000000001</v>
+      </c>
+      <c r="D205">
+        <v>90.0855</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>97.79770000000001</v>
+      </c>
+      <c r="C206">
+        <v>90.1541</v>
+      </c>
+      <c r="D206">
+        <v>101.664</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>93.1978</v>
+      </c>
+      <c r="C207">
+        <v>86.92270000000001</v>
+      </c>
+      <c r="D207">
+        <v>97.7657</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>91.7719</v>
+      </c>
+      <c r="C208">
+        <v>78.44070000000001</v>
+      </c>
+      <c r="D208">
+        <v>92.312</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>96.5154</v>
+      </c>
+      <c r="C209">
+        <v>89.7473</v>
+      </c>
+      <c r="D209">
+        <v>99.7728</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>93.55589999999999</v>
+      </c>
+      <c r="C210">
+        <v>85.3783</v>
+      </c>
+      <c r="D210">
+        <v>95.4178</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>89.9265</v>
+      </c>
+      <c r="C211">
+        <v>76.1437</v>
+      </c>
+      <c r="D211">
+        <v>91.17449999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>91.43340000000001</v>
+      </c>
+      <c r="C212">
+        <v>86.4721</v>
+      </c>
+      <c r="D212">
+        <v>91.8891</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>100.6</v>
+      </c>
+      <c r="C213">
+        <v>96.2217</v>
+      </c>
+      <c r="D213">
+        <v>105.235</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>87.34950000000001</v>
+      </c>
+      <c r="C214">
+        <v>74.5847</v>
+      </c>
+      <c r="D214">
+        <v>90.1362</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>90.3579</v>
+      </c>
+      <c r="C215">
+        <v>76.8501</v>
+      </c>
+      <c r="D215">
+        <v>93.09480000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>92.4183</v>
+      </c>
+      <c r="C216">
+        <v>79.7787</v>
+      </c>
+      <c r="D216">
+        <v>95.2505</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>93.5253</v>
+      </c>
+      <c r="C217">
+        <v>78.8005</v>
+      </c>
+      <c r="D217">
+        <v>93.37990000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>94.6767</v>
+      </c>
+      <c r="C218">
+        <v>88.9821</v>
+      </c>
+      <c r="D218">
+        <v>99.5913</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>88.5038</v>
+      </c>
+      <c r="C219">
+        <v>75.1456</v>
+      </c>
+      <c r="D219">
+        <v>86.26739999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>98.8736</v>
+      </c>
+      <c r="C220">
+        <v>90.6862</v>
+      </c>
+      <c r="D220">
+        <v>98.3069</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>88.0909</v>
+      </c>
+      <c r="C221">
+        <v>77.04219999999999</v>
+      </c>
+      <c r="D221">
+        <v>92.9751</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>96.91079999999999</v>
+      </c>
+      <c r="C222">
+        <v>91.1399</v>
+      </c>
+      <c r="D222">
+        <v>101.001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>89.7274</v>
+      </c>
+      <c r="C223">
+        <v>74.7443</v>
+      </c>
+      <c r="D223">
+        <v>97.21129999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>91.1311</v>
+      </c>
+      <c r="C224">
+        <v>78.0209</v>
+      </c>
+      <c r="D224">
+        <v>98.7041</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>85.4226</v>
+      </c>
+      <c r="C225">
+        <v>73.2253</v>
+      </c>
+      <c r="D225">
+        <v>94.4734</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>91.23009999999999</v>
+      </c>
+      <c r="C226">
+        <v>85.9104</v>
+      </c>
+      <c r="D226">
+        <v>96.979</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>89.4873</v>
+      </c>
+      <c r="C227">
+        <v>75.7028</v>
+      </c>
+      <c r="D227">
+        <v>94.1279</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>93.9979</v>
+      </c>
+      <c r="C228">
+        <v>87.28440000000001</v>
+      </c>
+      <c r="D228">
+        <v>96.5296</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>89.4747</v>
+      </c>
+      <c r="C229">
+        <v>83.2991</v>
+      </c>
+      <c r="D229">
+        <v>96.0703</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>91.7025</v>
+      </c>
+      <c r="C230">
+        <v>76.79770000000001</v>
+      </c>
+      <c r="D230">
+        <v>93.49590000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>103.837</v>
+      </c>
+      <c r="C231">
+        <v>96.5853</v>
+      </c>
+      <c r="D231">
+        <v>102.335</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>90.3314</v>
+      </c>
+      <c r="C232">
+        <v>77.0424</v>
+      </c>
+      <c r="D232">
+        <v>91.0264</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>89.47499999999999</v>
+      </c>
+      <c r="C233">
+        <v>76.98950000000001</v>
+      </c>
+      <c r="D233">
+        <v>92.3721</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>100.064</v>
+      </c>
+      <c r="C234">
+        <v>93.8079</v>
+      </c>
+      <c r="D234">
+        <v>102.953</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>92.14149999999999</v>
+      </c>
+      <c r="C235">
+        <v>85.7029</v>
+      </c>
+      <c r="D235">
+        <v>91.9089</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>94.2611</v>
+      </c>
+      <c r="C236">
+        <v>86.2123</v>
+      </c>
+      <c r="D236">
+        <v>96.42570000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>90.48909999999999</v>
+      </c>
+      <c r="C237">
+        <v>77.06180000000001</v>
+      </c>
+      <c r="D237">
+        <v>91.6587</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>88.5149</v>
+      </c>
+      <c r="C238">
+        <v>74.858</v>
+      </c>
+      <c r="D238">
+        <v>89.5346</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>90.30549999999999</v>
+      </c>
+      <c r="C239">
+        <v>77.5881</v>
+      </c>
+      <c r="D239">
+        <v>90.7238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>88.2239</v>
+      </c>
+      <c r="C240">
+        <v>75.42059999999999</v>
+      </c>
+      <c r="D240">
+        <v>96.60890000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>92.4186</v>
+      </c>
+      <c r="C241">
+        <v>86.1437</v>
+      </c>
+      <c r="D241">
+        <v>96.7667</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>90.991</v>
+      </c>
+      <c r="C242">
+        <v>78.8724</v>
+      </c>
+      <c r="D242">
+        <v>93.2839</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>95.2268</v>
+      </c>
+      <c r="C243">
+        <v>85.989</v>
+      </c>
+      <c r="D243">
+        <v>95.4079</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>90.9132</v>
+      </c>
+      <c r="C244">
+        <v>77.1185</v>
+      </c>
+      <c r="D244">
+        <v>93.6215</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>88.8271</v>
+      </c>
+      <c r="C245">
+        <v>76.6726</v>
+      </c>
+      <c r="D245">
+        <v>93.1589</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>94.28319999999999</v>
+      </c>
+      <c r="C246">
+        <v>85.6019</v>
+      </c>
+      <c r="D246">
+        <v>96.6994</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>99.07810000000001</v>
+      </c>
+      <c r="C247">
+        <v>90.941</v>
+      </c>
+      <c r="D247">
+        <v>99.3853</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>90.1401</v>
+      </c>
+      <c r="C248">
+        <v>77.37350000000001</v>
+      </c>
+      <c r="D248">
+        <v>92.6742</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>92.0658</v>
+      </c>
+      <c r="C249">
+        <v>77.02930000000001</v>
+      </c>
+      <c r="D249">
+        <v>91.1405</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>86.0021</v>
+      </c>
+      <c r="C250">
+        <v>73.36320000000001</v>
+      </c>
+      <c r="D250">
+        <v>87.67919999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>90.75190000000001</v>
+      </c>
+      <c r="C251">
+        <v>75.6006</v>
+      </c>
+      <c r="D251">
+        <v>89.0885</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>89.09690000000001</v>
+      </c>
+      <c r="C252">
+        <v>75.72920000000001</v>
+      </c>
+      <c r="D252">
+        <v>90.836</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>88.11660000000001</v>
+      </c>
+      <c r="C253">
+        <v>75.53870000000001</v>
+      </c>
+      <c r="D253">
+        <v>93.4066</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>88.4183</v>
+      </c>
+      <c r="C254">
+        <v>74.8646</v>
+      </c>
+      <c r="D254">
+        <v>88.6152</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>95.34229999999999</v>
+      </c>
+      <c r="C255">
+        <v>88.82210000000001</v>
+      </c>
+      <c r="D255">
+        <v>98.40600000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>101.02</v>
+      </c>
+      <c r="C256">
+        <v>91.8848</v>
+      </c>
+      <c r="D256">
+        <v>101.087</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>84.5372</v>
+      </c>
+      <c r="C257">
+        <v>72.40689999999999</v>
+      </c>
+      <c r="D257">
+        <v>86.3145</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>88.13890000000001</v>
+      </c>
+      <c r="C258">
+        <v>74.777</v>
+      </c>
+      <c r="D258">
+        <v>89.3192</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>91.79559999999999</v>
+      </c>
+      <c r="C259">
+        <v>78.3905</v>
+      </c>
+      <c r="D259">
+        <v>94.94840000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>95.3618</v>
+      </c>
+      <c r="C260">
+        <v>86.93089999999999</v>
+      </c>
+      <c r="D260">
+        <v>95.29989999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>91.327</v>
+      </c>
+      <c r="C261">
+        <v>85.7371</v>
+      </c>
+      <c r="D261">
+        <v>91.9024</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>98.99550000000001</v>
+      </c>
+      <c r="C262">
+        <v>90.1799</v>
+      </c>
+      <c r="D262">
+        <v>98.49930000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>84.9128</v>
+      </c>
+      <c r="C263">
+        <v>74.50409999999999</v>
+      </c>
+      <c r="D263">
+        <v>92.3262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>89.0604</v>
+      </c>
+      <c r="C264">
+        <v>75.6754</v>
+      </c>
+      <c r="D264">
+        <v>91.7671</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>92.2166</v>
+      </c>
+      <c r="C265">
+        <v>85.9415</v>
+      </c>
+      <c r="D265">
+        <v>97.4623</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>92.6293</v>
+      </c>
+      <c r="C266">
+        <v>84.8297</v>
+      </c>
+      <c r="D266">
+        <v>96.119</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>90.4513</v>
+      </c>
+      <c r="C267">
+        <v>78.7997</v>
+      </c>
+      <c r="D267">
+        <v>93.6679</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>97.1576</v>
+      </c>
+      <c r="C268">
+        <v>89.6571</v>
+      </c>
+      <c r="D268">
+        <v>99.631</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>94.49590000000001</v>
+      </c>
+      <c r="C269">
+        <v>86.4984</v>
+      </c>
+      <c r="D269">
+        <v>92.76649999999999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>91.7362</v>
+      </c>
+      <c r="C270">
+        <v>78.84520000000001</v>
+      </c>
+      <c r="D270">
+        <v>95.54049999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>92.0688</v>
+      </c>
+      <c r="C271">
+        <v>84.3912</v>
+      </c>
+      <c r="D271">
+        <v>94.3291</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>93.58540000000001</v>
+      </c>
+      <c r="C272">
+        <v>85.96380000000001</v>
+      </c>
+      <c r="D272">
+        <v>95.7616</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>92.07559999999999</v>
+      </c>
+      <c r="C273">
+        <v>84.072</v>
+      </c>
+      <c r="D273">
+        <v>92.3287</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>100.895</v>
+      </c>
+      <c r="C274">
+        <v>94.69799999999999</v>
+      </c>
+      <c r="D274">
+        <v>103.759</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>91.52719999999999</v>
+      </c>
+      <c r="C275">
+        <v>79.10509999999999</v>
+      </c>
+      <c r="D275">
+        <v>93.611</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>92.3</v>
+      </c>
+      <c r="C276">
+        <v>83.5714</v>
+      </c>
+      <c r="D276">
+        <v>95.5172</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>95.6438</v>
+      </c>
+      <c r="C277">
+        <v>90.1934</v>
+      </c>
+      <c r="D277">
+        <v>100.037</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>91.7248</v>
+      </c>
+      <c r="C278">
+        <v>86.8006</v>
+      </c>
+      <c r="D278">
+        <v>95.6623</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>92.9057</v>
+      </c>
+      <c r="C279">
+        <v>87.9648</v>
+      </c>
+      <c r="D279">
+        <v>96.8546</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>95.0198</v>
+      </c>
+      <c r="C280">
+        <v>89.2679</v>
+      </c>
+      <c r="D280">
+        <v>100.495</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>91.31319999999999</v>
+      </c>
+      <c r="C281">
+        <v>77.16930000000001</v>
+      </c>
+      <c r="D281">
+        <v>91.9337</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>95.53440000000001</v>
+      </c>
+      <c r="C282">
+        <v>87.60250000000001</v>
+      </c>
+      <c r="D282">
+        <v>94.4421</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>90.79900000000001</v>
+      </c>
+      <c r="C283">
+        <v>77.7368</v>
+      </c>
+      <c r="D283">
+        <v>92.3432</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>93.764</v>
+      </c>
+      <c r="C284">
+        <v>79.8659</v>
+      </c>
+      <c r="D284">
+        <v>93.9051</v>
       </c>
     </row>
   </sheetData>
